--- a/data/virulence-index/Plating_virulence index.xlsx
+++ b/data/virulence-index/Plating_virulence index.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danschw\Box\Lab\research\Bacillus phage\coevolution\fitness\virulence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danschw\GitHub\coevolution\coevo-seedbank-ancestors\data\virulence-index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDA903B-20FE-4916-8C72-0640623866ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D31B619-B9A4-4F68-9367-6DEC0AE6768D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31729322-EF29-43C0-AF2A-1D4EFFC87DEE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31729322-EF29-43C0-AF2A-1D4EFFC87DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>Virulence Index Assay 03/26/20</t>
   </si>
@@ -103,6 +104,48 @@
       </rPr>
       <t>RERUN</t>
     </r>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>rep</t>
+  </si>
+  <si>
+    <t>dilution</t>
+  </si>
+  <si>
+    <t>plaque</t>
+  </si>
+  <si>
+    <t>spoIIE</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>delta6</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>pfu.ml</t>
+  </si>
+  <si>
+    <t>ml.plated</t>
+  </si>
+  <si>
+    <t>EOP</t>
   </si>
 </sst>
 </file>
@@ -467,31 +510,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67271BB3-4B5C-4C4C-B692-CB4F6A1479E0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="101" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,7 +585,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -580,7 +623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -618,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -656,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -724,22 +767,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -752,7 +795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -836,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -877,7 +920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -918,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
@@ -963,7 +1006,7 @@
         <v>34.333333333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="3">
         <f>B25/B21</f>
@@ -996,7 +1039,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H27">
         <f>H26/H21</f>
         <v>21925000</v>
@@ -1014,7 +1057,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f>B26/H27</f>
         <v>7419.2322310908412</v>
@@ -1036,4 +1079,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDF89A4-7AC7-4473-A541-863930678E18}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/(D2*C2)</f>
+        <v>162000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>158</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F7" si="0">E3/(D3*C3)</f>
+        <v>158000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>168</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>168000000000</v>
+      </c>
+      <c r="G4" s="3">
+        <f>AVERAGE(F2:F4)</f>
+        <v>162666666666.66666</v>
+      </c>
+      <c r="H4" s="3">
+        <f>_xlfn.STDEV.P(F2:F4)</f>
+        <v>4109609335.3126512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>144</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>144000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>112000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>152</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>152000000000</v>
+      </c>
+      <c r="G7" s="3">
+        <f>AVERAGE(F5:F7)</f>
+        <v>136000000000</v>
+      </c>
+      <c r="H7" s="3">
+        <f>_xlfn.STDEV.P(F5:F7)</f>
+        <v>17281975195.754402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G7/G4</f>
+        <v>0.83606557377049184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f>_xlfn.T.TEST(F2:F4,F5:F7,2,3)</f>
+        <v>0.15470332066628242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>